--- a/functional_website_searchform.xlsx
+++ b/functional_website_searchform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\works\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DAF8E9-1940-4974-AA9B-B41FDCABD792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D043B88-1BBD-412B-BD37-8746BEA02087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,14 +711,14 @@
     <t>C42</t>
   </si>
   <si>
-    <t>Дымовое тестирование. Фокус</t>
-  </si>
-  <si>
     <t>1. Рамка формы поиска изменила цвет.
 2. В строке поиска отображается мерцающий курсор.</t>
   </si>
   <si>
     <t>1. Кликнуть по строке поиска.</t>
+  </si>
+  <si>
+    <t>Дымовое тестирование. Фокус строки поиска</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,7 +4227,7 @@
         <v>192</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>43</v>
@@ -4258,7 +4258,7 @@
         <v>25</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>26</v>
